--- a/contrib/common/simulator_packs/SPINE_NRLS/NRLS_Simulator_Triggers.xlsx
+++ b/contrib/common/simulator_packs/SPINE_NRLS/NRLS_Simulator_Triggers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hscic365-my.sharepoint.com/personal/chbr3_hscic_gov_uk/Documents/NRLS/Simulator Triggers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="937" documentId="11_86602B5CA313FBDC95D3FF80593D460EDFD1CBE5" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{93B894F3-ABD6-4AD5-9547-E060B2E98281}"/>
+  <xr:revisionPtr revIDLastSave="1144" documentId="11_86602B5CA313FBDC95D3FF80593D460EDFD1CBE5" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{BD9962DA-736D-4BAA-980C-1F4464073DFA}"/>
   <bookViews>
     <workbookView xWindow="195" yWindow="60" windowWidth="18885" windowHeight="9270" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,11 +21,18 @@
     <sheet name="Historic" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="337">
   <si>
     <t>Responses</t>
   </si>
@@ -1370,6 +1377,311 @@
     <t>er35</t>
   </si>
   <si>
+    <t>operation_outcome_400_ONF</t>
+  </si>
+  <si>
+    <t>operation_outcome_400_IRM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTTP400 Missing or Invalid Header + Operation Outcome </t>
+  </si>
+  <si>
+    <t>Invalid NHS Number</t>
+  </si>
+  <si>
+    <t>Invalid Parameter</t>
+  </si>
+  <si>
+    <t>No Record Found</t>
+  </si>
+  <si>
+    <t>Missing Or Invalid Header</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTTP201 Success </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTTP400 Invalid Request Message </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTTP400 Invalid Resource </t>
+  </si>
+  <si>
+    <t>HTTP400 Organisation Not Found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTTP400 Invalid NHS Number </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTTP400 Missing or Invalid Header </t>
+  </si>
+  <si>
+    <t>HTTP400 Invalid Parameter</t>
+  </si>
+  <si>
+    <t>HTTP415 Unsupported Media Type + Operation Outcome</t>
+  </si>
+  <si>
+    <t>er99</t>
+  </si>
+  <si>
+    <t>UNSUPPORTED_MEDIA_TYPE</t>
+  </si>
+  <si>
+    <t>Unsupported Media Type</t>
+  </si>
+  <si>
+    <t>operation_outcome_415_UMT</t>
+  </si>
+  <si>
+    <t>HTTP415 Unsupported Media Type</t>
+  </si>
+  <si>
+    <t>1.2.0 beta</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>Updated version. READ and UPDATE removed. Multiple other changes. See NRLS API specification release notes for full details.</t>
+  </si>
+  <si>
+    <t>GET Summary (Count)</t>
+  </si>
+  <si>
+    <t>Bundle (of type searchset) with total of "3" returned</t>
+  </si>
+  <si>
+    <t>Bundle (of type searchset) with total of "0" returned</t>
+  </si>
+  <si>
+    <t>HTTP200 Success Bundlewith postive count returned</t>
+  </si>
+  <si>
+    <t>HTTP200 Success Bundle with count of zero returned</t>
+  </si>
+  <si>
+    <t>Delete (using HTTP DELETE) Document Reference Tests:</t>
+  </si>
+  <si>
+    <t>HTTP Location header containing the full URL to the newly created DocumentReference. This URL will contain the ‘server’ assigned logical Id and versionId ('1' for new record) plus OperationOutcome resource</t>
+  </si>
+  <si>
+    <t>DELETE valid DocumentReference resource by Doc Ref Id</t>
+  </si>
+  <si>
+    <t>DELETE valid DocumentReference resource by Doc Ref MasterIdentifier</t>
+  </si>
+  <si>
+    <t>added in 1.2.0-beta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTTP400 Duplicate Rejected + OperationOutcome </t>
+  </si>
+  <si>
+    <t>er98</t>
+  </si>
+  <si>
+    <t>HTTP500 Internal Server Error + OperationOutcome</t>
+  </si>
+  <si>
+    <t>INTERNAL_SERVER_ERROR</t>
+  </si>
+  <si>
+    <t>Unexpected internal server error</t>
+  </si>
+  <si>
+    <t>HTTP400 Duplicate Rejected</t>
+  </si>
+  <si>
+    <t>HTTP500 Internal Server Error</t>
+  </si>
+  <si>
+    <t>operation_outcome_400_DR</t>
+  </si>
+  <si>
+    <t>operation_outcome_500_ISE</t>
+  </si>
+  <si>
+    <t>added in 1.2.0-beta    (captures conditions where server is at fault)</t>
+  </si>
+  <si>
+    <t>added in 1.2.0-beta    (only get this if using MasterIdentifier)</t>
+  </si>
+  <si>
+    <t>NHS no                           MasterIdentifier system</t>
+  </si>
+  <si>
+    <t>9876543210                      optional</t>
+  </si>
+  <si>
+    <t>9464250321                      optional</t>
+  </si>
+  <si>
+    <t>9464250054                      optional</t>
+  </si>
+  <si>
+    <t>9464249935                      optional</t>
+  </si>
+  <si>
+    <t>9464250569                      optional</t>
+  </si>
+  <si>
+    <t>9462205973                      optional</t>
+  </si>
+  <si>
+    <t>9462206007                      optional</t>
+  </si>
+  <si>
+    <t>9462205795                      optional</t>
+  </si>
+  <si>
+    <t>9462207127                      optional</t>
+  </si>
+  <si>
+    <t>9462207119                  urn:ietf:rfc:3986</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>Get via Patient (Count only)</t>
+  </si>
+  <si>
+    <t>NHS no                    MI system           MI value</t>
+  </si>
+  <si>
+    <t>9462205868      urn:ietf:rfc:4001    urn:oid:1.3.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Invalid Resource</t>
+  </si>
+  <si>
+    <t>9462205701                any                      any</t>
+  </si>
+  <si>
+    <t>9462205833                any                      any</t>
+  </si>
+  <si>
+    <t>9462205841                any                      any</t>
+  </si>
+  <si>
+    <t>Delete by MI only</t>
+  </si>
+  <si>
+    <t>Updated version. Additional SEARCH Count and DELETE by MasterIdentifier functionality. Additional Error responses on CREATE.  Additional good responses on SEARCHs to include MasterIdentifier and RealtesTo. See NRLS API specification release notes for full details.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">added in 1.2.0-beta. Includes MI, RT &amp; superceded data </t>
+  </si>
+  <si>
+    <t>added in 1.2.0-beta. Includes MI</t>
+  </si>
+  <si>
+    <t>9462206066        736253002</t>
+  </si>
+  <si>
+    <t>9462206058                 RR8</t>
+  </si>
+  <si>
+    <t>doc_ref_bundle_GET_DR_ef56</t>
+  </si>
+  <si>
+    <t>Bundle (of type searchset) of  DocumentReference resources (2)</t>
+  </si>
+  <si>
+    <t>Bundle (of type searchset) of  DocumentReference resources (3)</t>
+  </si>
+  <si>
+    <t>doc_ref_bundle_GET_Pat_9462206031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doc_ref_bundle_GET_Pat_9462206058   </t>
+  </si>
+  <si>
+    <t>1.2.2 beta</t>
+  </si>
+  <si>
+    <r>
+      <t>c037a0cb-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ab12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-4976-83a1-a5d2703e6aa3-1a2b3c4d5e6f7g8h9i0j</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c037a0cb-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ef56</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-4976-83a1-a5d2703e6aa3-1a2b3c4d5e6f7g8h9i0j</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>c037a0cb-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cd34</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-4976-83a1-a5d2703e6aa3-1a2b3c4d5e6f7g8h9i0j</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t>c037a0cb-</t>
     </r>
@@ -1391,7 +1703,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>-4976-83a1-a5d2703e6aa3</t>
+      <t>-4976-83a1-a5d2703e6aa3-1a2b3c4d5e6f7g8h9i0j</t>
     </r>
   </si>
   <si>
@@ -1416,7 +1728,32 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>-4976-83a1-a5d2703e6aa3</t>
+      <t>-4976-83a1-a5d2703e6aa3-1a2b3c4d5e6f7g8h9i0j</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>c037a0cb-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>er23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-4976-83a1-a5d2703e6aa3-1a2b3c4d5e6f7g8h9i0j</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1778,57 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>-4976-83a1-a5d2703e6aa3</t>
+      <t>-4976-83a1-a5d2703e6aa3-1a2b3c4d5e6f7g8h9i0j</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>c037a0cb-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>er99</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-4976-83a1-a5d2703e6aa3-1a2b3c4d5e6f7g8h9i0j</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>c037a0cb-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12kl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-4976-83a1-a5d2703e6aa3-1a2b3c4d5e6f7g8h9i0j</t>
     </r>
   </si>
   <si>
@@ -1466,270 +1853,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>-4976-83a1-a5d2703e6aa3</t>
-    </r>
-  </si>
-  <si>
-    <t>operation_outcome_400_ONF</t>
-  </si>
-  <si>
-    <t>operation_outcome_400_IRM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HTTP400 Missing or Invalid Header + Operation Outcome </t>
-  </si>
-  <si>
-    <r>
-      <t>c037a0cb-</t>
-    </r>
+      <t>-4976-83a1-a5d2703e6aa3-1a2b3c4d5e6f7g8h9i0j</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>er23</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-4976-83a1-a5d2703e6aa3</t>
-    </r>
-  </si>
-  <si>
-    <t>Invalid NHS Number</t>
-  </si>
-  <si>
-    <t>Invalid Parameter</t>
-  </si>
-  <si>
-    <t>No Record Found</t>
-  </si>
-  <si>
-    <t>Missing Or Invalid Header</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HTTP201 Success </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HTTP400 Invalid Request Message </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HTTP400 Invalid Resource </t>
-  </si>
-  <si>
-    <t>HTTP400 Organisation Not Found</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HTTP400 Invalid NHS Number </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HTTP400 Missing or Invalid Header </t>
-  </si>
-  <si>
-    <t>HTTP400 Invalid Parameter</t>
-  </si>
-  <si>
-    <t>HTTP415 Unsupported Media Type + Operation Outcome</t>
-  </si>
-  <si>
-    <t>er99</t>
-  </si>
-  <si>
-    <t>UNSUPPORTED_MEDIA_TYPE</t>
-  </si>
-  <si>
-    <t>Unsupported Media Type</t>
-  </si>
-  <si>
-    <r>
-      <t>c037a0cb-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>er99</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-4976-83a1-a5d2703e6aa3</t>
-    </r>
-  </si>
-  <si>
-    <t>operation_outcome_415_UMT</t>
-  </si>
-  <si>
-    <t>HTTP415 Unsupported Media Type</t>
-  </si>
-  <si>
-    <t>1.2.0 beta</t>
-  </si>
-  <si>
-    <t>July 2018</t>
-  </si>
-  <si>
-    <t>Updated version. READ and UPDATE removed. Multiple other changes. See NRLS API specification release notes for full details.</t>
-  </si>
-  <si>
-    <t>GET Summary (Count)</t>
-  </si>
-  <si>
-    <t>Bundle (of type searchset) with total of "3" returned</t>
-  </si>
-  <si>
-    <t>Bundle (of type searchset) with total of "0" returned</t>
-  </si>
-  <si>
-    <t>HTTP200 Success Bundlewith postive count returned</t>
-  </si>
-  <si>
-    <t>HTTP200 Success Bundle with count of zero returned</t>
-  </si>
-  <si>
-    <t>Delete (using HTTP DELETE) Document Reference Tests:</t>
-  </si>
-  <si>
-    <t>HTTP Location header containing the full URL to the newly created DocumentReference. This URL will contain the ‘server’ assigned logical Id and versionId ('1' for new record) plus OperationOutcome resource</t>
-  </si>
-  <si>
-    <t>DELETE valid DocumentReference resource by Doc Ref Id</t>
-  </si>
-  <si>
-    <t>DELETE valid DocumentReference resource by Doc Ref MasterIdentifier</t>
-  </si>
-  <si>
-    <t>added in 1.2.0-beta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HTTP400 Duplicate Rejected + OperationOutcome </t>
-  </si>
-  <si>
-    <t>er98</t>
-  </si>
-  <si>
-    <t>HTTP500 Internal Server Error + OperationOutcome</t>
-  </si>
-  <si>
-    <t>INTERNAL_SERVER_ERROR</t>
-  </si>
-  <si>
-    <t>Unexpected internal server error</t>
-  </si>
-  <si>
-    <t>HTTP400 Duplicate Rejected</t>
-  </si>
-  <si>
-    <t>HTTP500 Internal Server Error</t>
-  </si>
-  <si>
-    <t>operation_outcome_400_DR</t>
-  </si>
-  <si>
-    <t>operation_outcome_500_ISE</t>
-  </si>
-  <si>
-    <t>added in 1.2.0-beta    (captures conditions where server is at fault)</t>
-  </si>
-  <si>
-    <t>added in 1.2.0-beta    (only get this if using MasterIdentifier)</t>
-  </si>
-  <si>
-    <t>NHS no                           MasterIdentifier system</t>
-  </si>
-  <si>
-    <t>9876543210                      optional</t>
-  </si>
-  <si>
-    <t>9464250321                      optional</t>
-  </si>
-  <si>
-    <t>9464250054                      optional</t>
-  </si>
-  <si>
-    <t>9464249935                      optional</t>
-  </si>
-  <si>
-    <t>9464250569                      optional</t>
-  </si>
-  <si>
-    <t>9462205973                      optional</t>
-  </si>
-  <si>
-    <t>9462206007                      optional</t>
-  </si>
-  <si>
-    <t>9462205795                      optional</t>
-  </si>
-  <si>
-    <t>9462207127                      optional</t>
-  </si>
-  <si>
-    <t>9462207119                  urn:ietf:rfc:3986</t>
-  </si>
-  <si>
-    <t>notes</t>
-  </si>
-  <si>
-    <t>Get via Patient (Count only)</t>
-  </si>
-  <si>
-    <t>NHS no                    MI system           MI value</t>
-  </si>
-  <si>
-    <t>9462205868      urn:ietf:rfc:4001    urn:oid:1.3.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Invalid Resource</t>
-  </si>
-  <si>
-    <t>9462205701                any                      any</t>
-  </si>
-  <si>
-    <t>9462205833                any                      any</t>
-  </si>
-  <si>
-    <t>9462205841                any                      any</t>
-  </si>
-  <si>
-    <t>Delete by MI only</t>
-  </si>
-  <si>
-    <t>Updated version. Additional SEARCH Count and DELETE by MasterIdentifier functionality. Additional Error responses on CREATE.  Additional good responses on SEARCHs to include MasterIdentifier and RealtesTo. See NRLS API specification release notes for full details.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">added in 1.2.0-beta. Includes MI, RT &amp; superceded data </t>
-  </si>
-  <si>
-    <t>added in 1.2.0-beta. Includes MI</t>
-  </si>
-  <si>
-    <t>9462206066        736253002</t>
-  </si>
-  <si>
-    <t>9462206058                 RR8</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -1738,7 +1867,6 @@
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
@@ -1748,7 +1876,6 @@
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -1757,59 +1884,50 @@
     </r>
   </si>
   <si>
-    <t>doc_ref_bundle_GET_DR_ef56</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>c037a0cb-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ef56</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-4976-83a1-a5d2703e6aa3</t>
-    </r>
-  </si>
-  <si>
-    <t>Bundle (of type searchset) of  DocumentReference resources (2)</t>
-  </si>
-  <si>
-    <t>Bundle (of type searchset) of  DocumentReference resources (3)</t>
-  </si>
-  <si>
-    <t>doc_ref_bundle_GET_Pat_9462206031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">doc_ref_bundle_GET_Pat_9462206058   </t>
+    <t>doc_ref_Delete_MI</t>
+  </si>
+  <si>
+    <t>doc_ref_bundle_GET_Count_9462205922</t>
+  </si>
+  <si>
+    <t>doc_ref_bundle_GET_Count_9462205981</t>
+  </si>
+  <si>
+    <t>doc_ref_bundle_GET_Pat_9462206066</t>
+  </si>
+  <si>
+    <t>added in 1.2.0-beta. Amended 1.2.2-beta</t>
+  </si>
+  <si>
+    <t>operation_outcome_404_NRF_MI</t>
+  </si>
+  <si>
+    <t>operation_outcome_415_UMT_cr</t>
+  </si>
+  <si>
+    <t>operation_outcome_400_INN_cr</t>
+  </si>
+  <si>
+    <t>operation_outcome_400_MOIH_cr</t>
+  </si>
+  <si>
+    <t>Update Id field in DR's to include the extra 20 chars at end (now in 8-4-4-4-12-20 format) to reflect what is now returned by NRLS app. This is for both trigger values and simulator responses. Include new response to Delete by MI for a NO-RECORD_FOUND response</t>
+  </si>
+  <si>
+    <t>operation_outcome_400_IP_cr</t>
+  </si>
+  <si>
+    <t>doc_ref_bundle_GET_Pat_9462205906</t>
+  </si>
+  <si>
+    <t>Oct/Nov 2018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1975,28 +2093,13 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2042,6 +2145,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2092,7 +2201,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2223,7 +2332,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2262,7 +2370,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -2285,9 +2392,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2309,28 +2413,18 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -2348,6 +2442,17 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2712,8 +2817,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D3" s="1"/>
@@ -2754,7 +2859,7 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="118" t="s">
+      <c r="A6" s="109" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="24" t="s">
@@ -2775,7 +2880,7 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="118"/>
+      <c r="A7" s="109"/>
       <c r="B7" s="24" t="s">
         <v>2</v>
       </c>
@@ -2796,7 +2901,7 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="118"/>
+      <c r="A8" s="109"/>
       <c r="B8" s="24" t="s">
         <v>3</v>
       </c>
@@ -2815,7 +2920,7 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="118"/>
+      <c r="A9" s="109"/>
       <c r="B9" s="24" t="s">
         <v>4</v>
       </c>
@@ -2834,7 +2939,7 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="118"/>
+      <c r="A10" s="109"/>
       <c r="B10" s="24" t="s">
         <v>5</v>
       </c>
@@ -2915,7 +3020,7 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="119" t="s">
+      <c r="A16" s="110" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2938,7 +3043,7 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="119"/>
+      <c r="A17" s="110"/>
       <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
@@ -2957,7 +3062,7 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="119"/>
+      <c r="A18" s="110"/>
       <c r="B18" s="1" t="s">
         <v>3</v>
       </c>
@@ -2976,7 +3081,7 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="119"/>
+      <c r="A19" s="110"/>
       <c r="B19" s="1" t="s">
         <v>4</v>
       </c>
@@ -2995,7 +3100,7 @@
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="119"/>
+      <c r="A20" s="110"/>
       <c r="B20" s="1" t="s">
         <v>13</v>
       </c>
@@ -3047,7 +3152,7 @@
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="119" t="s">
+      <c r="A24" s="110" t="s">
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -3070,7 +3175,7 @@
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="119"/>
+      <c r="A25" s="110"/>
       <c r="B25" s="1" t="s">
         <v>7</v>
       </c>
@@ -3089,7 +3194,7 @@
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="119"/>
+      <c r="A26" s="110"/>
       <c r="B26" s="1" t="s">
         <v>3</v>
       </c>
@@ -3108,7 +3213,7 @@
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="119"/>
+      <c r="A27" s="110"/>
       <c r="B27" s="1" t="s">
         <v>4</v>
       </c>
@@ -3127,7 +3232,7 @@
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="119"/>
+      <c r="A28" s="110"/>
       <c r="B28" s="1" t="s">
         <v>13</v>
       </c>
@@ -3177,7 +3282,7 @@
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="119" t="s">
+      <c r="A32" s="110" t="s">
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -3200,7 +3305,7 @@
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="119"/>
+      <c r="A33" s="110"/>
       <c r="B33" s="1" t="s">
         <v>7</v>
       </c>
@@ -3219,7 +3324,7 @@
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="119"/>
+      <c r="A34" s="110"/>
       <c r="B34" s="1" t="s">
         <v>3</v>
       </c>
@@ -3238,7 +3343,7 @@
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="119"/>
+      <c r="A35" s="110"/>
       <c r="B35" s="1" t="s">
         <v>4</v>
       </c>
@@ -3257,7 +3362,7 @@
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="119"/>
+      <c r="A36" s="110"/>
       <c r="B36" s="1" t="s">
         <v>13</v>
       </c>
@@ -3309,7 +3414,7 @@
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="119" t="s">
+      <c r="A40" s="110" t="s">
         <v>0</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -3336,7 +3441,7 @@
       <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="119"/>
+      <c r="A41" s="110"/>
       <c r="B41" s="1" t="s">
         <v>7</v>
       </c>
@@ -3357,7 +3462,7 @@
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="119"/>
+      <c r="A42" s="110"/>
       <c r="B42" s="1" t="s">
         <v>3</v>
       </c>
@@ -3378,7 +3483,7 @@
       <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="119"/>
+      <c r="A43" s="110"/>
       <c r="B43" s="1" t="s">
         <v>4</v>
       </c>
@@ -3399,7 +3504,7 @@
       <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="119"/>
+      <c r="A44" s="110"/>
       <c r="B44" s="1" t="s">
         <v>13</v>
       </c>
@@ -3453,7 +3558,7 @@
       <c r="I47" s="1"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="118" t="s">
+      <c r="A48" s="109" t="s">
         <v>0</v>
       </c>
       <c r="B48" s="24" t="s">
@@ -3472,7 +3577,7 @@
       <c r="I48" s="1"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="118"/>
+      <c r="A49" s="109"/>
       <c r="B49" s="24" t="s">
         <v>7</v>
       </c>
@@ -3487,7 +3592,7 @@
       <c r="I49" s="1"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="118"/>
+      <c r="A50" s="109"/>
       <c r="B50" s="34" t="s">
         <v>2</v>
       </c>
@@ -3506,7 +3611,7 @@
       <c r="I50" s="1"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="118"/>
+      <c r="A51" s="109"/>
       <c r="B51" s="24" t="s">
         <v>3</v>
       </c>
@@ -3523,7 +3628,7 @@
       <c r="I51" s="1"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="118"/>
+      <c r="A52" s="109"/>
       <c r="B52" s="24" t="s">
         <v>4</v>
       </c>
@@ -3540,7 +3645,7 @@
       <c r="I52" s="1"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="118"/>
+      <c r="A53" s="109"/>
       <c r="B53" s="24" t="s">
         <v>13</v>
       </c>
@@ -3603,7 +3708,7 @@
       <c r="I57" s="1"/>
     </row>
     <row r="58" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A58" s="119" t="s">
+      <c r="A58" s="110" t="s">
         <v>0</v>
       </c>
       <c r="B58" s="14" t="s">
@@ -3626,7 +3731,7 @@
       <c r="I58" s="1"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="119"/>
+      <c r="A59" s="110"/>
       <c r="B59" s="1" t="s">
         <v>3</v>
       </c>
@@ -3645,7 +3750,7 @@
       <c r="I59" s="1"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="119"/>
+      <c r="A60" s="110"/>
       <c r="B60" s="1" t="s">
         <v>11</v>
       </c>
@@ -3664,7 +3769,7 @@
       <c r="I60" s="1"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="119"/>
+      <c r="A61" s="110"/>
       <c r="B61" s="1" t="s">
         <v>12</v>
       </c>
@@ -3683,7 +3788,7 @@
       <c r="I61" s="1"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="119"/>
+      <c r="A62" s="110"/>
       <c r="B62" s="1" t="s">
         <v>13</v>
       </c>
@@ -3750,7 +3855,7 @@
       <c r="I66" s="1"/>
     </row>
     <row r="67" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A67" s="118" t="s">
+      <c r="A67" s="109" t="s">
         <v>0</v>
       </c>
       <c r="B67" s="29" t="s">
@@ -3771,7 +3876,7 @@
       <c r="I67" s="1"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="118"/>
+      <c r="A68" s="109"/>
       <c r="B68" s="24" t="s">
         <v>2</v>
       </c>
@@ -3792,7 +3897,7 @@
       <c r="I68" s="1"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="118"/>
+      <c r="A69" s="109"/>
       <c r="B69" s="24" t="s">
         <v>3</v>
       </c>
@@ -3811,7 +3916,7 @@
       <c r="I69" s="1"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="118"/>
+      <c r="A70" s="109"/>
       <c r="B70" s="24" t="s">
         <v>11</v>
       </c>
@@ -3830,7 +3935,7 @@
       <c r="I70" s="1"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="118"/>
+      <c r="A71" s="109"/>
       <c r="B71" s="24" t="s">
         <v>12</v>
       </c>
@@ -3849,7 +3954,7 @@
       <c r="I71" s="1"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="118"/>
+      <c r="A72" s="109"/>
       <c r="B72" s="24" t="s">
         <v>13</v>
       </c>
@@ -3916,7 +4021,7 @@
       <c r="I76" s="1"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="119" t="s">
+      <c r="A77" s="110" t="s">
         <v>0</v>
       </c>
       <c r="B77" s="32" t="s">
@@ -3937,7 +4042,7 @@
       <c r="I77" s="1"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="119"/>
+      <c r="A78" s="110"/>
       <c r="B78" s="1" t="s">
         <v>2</v>
       </c>
@@ -3956,7 +4061,7 @@
       <c r="I78" s="1"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="119"/>
+      <c r="A79" s="110"/>
       <c r="B79" s="1" t="s">
         <v>3</v>
       </c>
@@ -3975,7 +4080,7 @@
       <c r="I79" s="1"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="119"/>
+      <c r="A80" s="110"/>
       <c r="B80" s="1" t="s">
         <v>13</v>
       </c>
@@ -4176,7 +4281,7 @@
   <dimension ref="C2:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4186,11 +4291,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="C2" s="121" t="s">
+      <c r="C2" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
     </row>
     <row r="4" spans="3:5" ht="15" x14ac:dyDescent="0.25">
       <c r="C4" s="22" t="s">
@@ -4227,24 +4332,30 @@
         <v>80</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="3:5" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="19" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21"/>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C10" s="19"/>
@@ -4282,24 +4393,24 @@
   </sheetPr>
   <dimension ref="A1:J98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="57.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="56.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="5.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="52.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="55.5" customWidth="1"/>
     <col min="6" max="6" width="32.25" customWidth="1"/>
     <col min="7" max="7" width="52.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E3" s="1"/>
@@ -4348,7 +4459,7 @@
         <v>33</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>86</v>
@@ -4357,20 +4468,20 @@
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="119" t="s">
+      <c r="A7" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="7" t="s">
-        <v>27</v>
+      <c r="C7" s="115"/>
+      <c r="D7" s="107" t="s">
+        <v>313</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="7" t="s">
         <v>96</v>
       </c>
       <c r="G7" s="1"/>
@@ -4380,41 +4491,41 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" s="105" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="119"/>
+    <row r="8" spans="1:10" s="102" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="110"/>
       <c r="B8" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="7"/>
-      <c r="D8" s="117" t="s">
-        <v>315</v>
-      </c>
-      <c r="E8" s="108" t="s">
+      <c r="D8" s="108" t="s">
+        <v>314</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>95</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="119"/>
-      <c r="B9" s="76" t="s">
+      <c r="A9" s="110"/>
+      <c r="B9" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="7" t="s">
-        <v>28</v>
+      <c r="C9" s="115"/>
+      <c r="D9" s="107" t="s">
+        <v>315</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="7" t="s">
         <v>97</v>
       </c>
       <c r="G9" s="1"/>
@@ -4423,15 +4534,15 @@
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="119"/>
+      <c r="A10" s="110"/>
       <c r="B10" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="116" t="s">
         <v>217</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>238</v>
+      <c r="D10" s="107" t="s">
+        <v>316</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>23</v>
@@ -4445,15 +4556,15 @@
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="119"/>
+      <c r="A11" s="110"/>
       <c r="B11" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="116" t="s">
         <v>218</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>239</v>
+      <c r="D11" s="107" t="s">
+        <v>317</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>23</v>
@@ -4467,20 +4578,20 @@
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="119"/>
-      <c r="B12" s="76" t="s">
-        <v>244</v>
-      </c>
-      <c r="C12" s="79" t="s">
+      <c r="A12" s="110"/>
+      <c r="B12" s="75" t="s">
+        <v>240</v>
+      </c>
+      <c r="C12" s="117" t="s">
         <v>225</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>245</v>
+      <c r="D12" s="107" t="s">
+        <v>318</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="76" t="s">
+      <c r="F12" s="75" t="s">
         <v>41</v>
       </c>
       <c r="G12" s="1"/>
@@ -4489,15 +4600,15 @@
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="119"/>
+      <c r="A13" s="110"/>
       <c r="B13" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="62" t="s">
+      <c r="C13" s="116" t="s">
         <v>229</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>240</v>
+      <c r="D13" s="107" t="s">
+        <v>319</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>23</v>
@@ -4511,21 +4622,21 @@
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="119"/>
-      <c r="B14" s="76" t="s">
-        <v>257</v>
-      </c>
-      <c r="C14" s="80" t="s">
-        <v>258</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="E14" s="81" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="76" t="s">
-        <v>262</v>
+      <c r="A14" s="110"/>
+      <c r="B14" s="75" t="s">
+        <v>252</v>
+      </c>
+      <c r="C14" s="118" t="s">
+        <v>253</v>
+      </c>
+      <c r="D14" s="107" t="s">
+        <v>320</v>
+      </c>
+      <c r="E14" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="75" t="s">
+        <v>256</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -4561,26 +4672,27 @@
         <v>46</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="F17" s="7"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="119" t="s">
+      <c r="A18" s="110" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C18" s="7"/>
       <c r="D18" s="15">
         <v>9462205957</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="F18" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G18" s="1"/>
@@ -4590,40 +4702,41 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" s="105" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="119"/>
+    <row r="19" spans="1:10" s="102" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="110"/>
       <c r="B19" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="7"/>
-      <c r="D19" s="111">
+      <c r="D19" s="62">
         <v>9462206031</v>
       </c>
-      <c r="E19" s="108" t="s">
-        <v>316</v>
+      <c r="E19" s="7" t="s">
+        <v>308</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="119"/>
+      <c r="A20" s="110"/>
       <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C20" s="7"/>
       <c r="D20" s="15">
         <v>9462205965</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="90" t="s">
         <v>44</v>
       </c>
       <c r="G20" s="1"/>
@@ -4632,14 +4745,14 @@
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="119"/>
+      <c r="A21" s="110"/>
       <c r="B21" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C21" s="62" t="s">
+      <c r="C21" s="116" t="s">
         <v>217</v>
       </c>
-      <c r="D21" s="63">
+      <c r="D21" s="62">
         <v>9462205655</v>
       </c>
       <c r="E21" s="7" t="s">
@@ -4654,14 +4767,14 @@
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="119"/>
+      <c r="A22" s="110"/>
       <c r="B22" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C22" s="62" t="s">
+      <c r="C22" s="116" t="s">
         <v>218</v>
       </c>
-      <c r="D22" s="63">
+      <c r="D22" s="62">
         <v>9462205671</v>
       </c>
       <c r="E22" s="7" t="s">
@@ -4676,11 +4789,11 @@
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="119"/>
-      <c r="B23" s="76" t="s">
-        <v>244</v>
-      </c>
-      <c r="C23" s="79" t="s">
+      <c r="A23" s="110"/>
+      <c r="B23" s="75" t="s">
+        <v>240</v>
+      </c>
+      <c r="C23" s="117" t="s">
         <v>225</v>
       </c>
       <c r="D23" s="16">
@@ -4689,7 +4802,7 @@
       <c r="E23" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="76" t="s">
+      <c r="F23" s="75" t="s">
         <v>41</v>
       </c>
       <c r="G23" s="1"/>
@@ -4698,14 +4811,14 @@
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="119"/>
+      <c r="A24" s="110"/>
       <c r="B24" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C24" s="62" t="s">
+      <c r="C24" s="116" t="s">
         <v>229</v>
       </c>
-      <c r="D24" s="63">
+      <c r="D24" s="62">
         <v>9462205701</v>
       </c>
       <c r="E24" s="7" t="s">
@@ -4720,21 +4833,21 @@
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="119"/>
-      <c r="B25" s="76" t="s">
-        <v>257</v>
-      </c>
-      <c r="C25" s="80" t="s">
-        <v>258</v>
+      <c r="A25" s="110"/>
+      <c r="B25" s="75" t="s">
+        <v>252</v>
+      </c>
+      <c r="C25" s="118" t="s">
+        <v>253</v>
       </c>
       <c r="D25" s="16">
         <v>9462205841</v>
       </c>
-      <c r="E25" s="81" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="76" t="s">
-        <v>262</v>
+      <c r="E25" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="75" t="s">
+        <v>256</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -4775,19 +4888,20 @@
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="119" t="s">
+      <c r="A29" s="110" t="s">
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C29" s="7"/>
       <c r="D29" s="16" t="s">
         <v>48</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="F29" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>53</v>
       </c>
       <c r="G29" s="1"/>
@@ -4797,40 +4911,41 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" s="105" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="119"/>
+    <row r="30" spans="1:10" s="102" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="110"/>
       <c r="B30" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C30" s="7"/>
-      <c r="D30" s="111" t="s">
-        <v>312</v>
-      </c>
-      <c r="E30" s="108" t="s">
-        <v>317</v>
+      <c r="D30" s="62" t="s">
+        <v>306</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>309</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="119"/>
+      <c r="A31" s="110"/>
       <c r="B31" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C31" s="7"/>
       <c r="D31" s="16" t="s">
         <v>49</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="7" t="s">
         <v>54</v>
       </c>
       <c r="G31" s="1"/>
@@ -4839,20 +4954,20 @@
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="119"/>
+      <c r="A32" s="110"/>
       <c r="B32" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C32" s="62" t="s">
+      <c r="C32" s="116" t="s">
         <v>217</v>
       </c>
-      <c r="D32" s="63">
+      <c r="D32" s="62">
         <v>9462205655</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="7" t="s">
         <v>126</v>
       </c>
       <c r="G32" s="1"/>
@@ -4861,14 +4976,14 @@
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="119"/>
+      <c r="A33" s="110"/>
       <c r="B33" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C33" s="62" t="s">
+      <c r="C33" s="116" t="s">
         <v>218</v>
       </c>
-      <c r="D33" s="63">
+      <c r="D33" s="62">
         <v>9462205671</v>
       </c>
       <c r="E33" s="7" t="s">
@@ -4883,11 +4998,11 @@
       <c r="J33" s="1"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="119"/>
-      <c r="B34" s="76" t="s">
-        <v>244</v>
-      </c>
-      <c r="C34" s="79" t="s">
+      <c r="A34" s="110"/>
+      <c r="B34" s="75" t="s">
+        <v>240</v>
+      </c>
+      <c r="C34" s="117" t="s">
         <v>225</v>
       </c>
       <c r="D34" s="16">
@@ -4896,7 +5011,7 @@
       <c r="E34" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F34" s="76" t="s">
+      <c r="F34" s="75" t="s">
         <v>41</v>
       </c>
       <c r="G34" s="1"/>
@@ -4905,14 +5020,14 @@
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="119"/>
+      <c r="A35" s="110"/>
       <c r="B35" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C35" s="62" t="s">
+      <c r="C35" s="116" t="s">
         <v>229</v>
       </c>
-      <c r="D35" s="63">
+      <c r="D35" s="62">
         <v>9462205701</v>
       </c>
       <c r="E35" s="7" t="s">
@@ -4927,21 +5042,21 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="119"/>
-      <c r="B36" s="76" t="s">
-        <v>257</v>
-      </c>
-      <c r="C36" s="80" t="s">
-        <v>258</v>
+      <c r="A36" s="110"/>
+      <c r="B36" s="75" t="s">
+        <v>252</v>
+      </c>
+      <c r="C36" s="118" t="s">
+        <v>253</v>
       </c>
       <c r="D36" s="16">
         <v>9462205841</v>
       </c>
-      <c r="E36" s="81" t="s">
-        <v>23</v>
-      </c>
-      <c r="F36" s="76" t="s">
-        <v>262</v>
+      <c r="E36" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" s="75" t="s">
+        <v>256</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -4984,20 +5099,21 @@
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="119" t="s">
+      <c r="A40" s="110" t="s">
         <v>0</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C40" s="7"/>
       <c r="D40" s="16" t="s">
         <v>102</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>53</v>
+      <c r="F40" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1" t="s">
@@ -5006,38 +5122,41 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:10" s="105" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="119"/>
+    <row r="41" spans="1:10" s="102" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="110"/>
       <c r="B41" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C41" s="7"/>
-      <c r="D41" s="111" t="s">
-        <v>311</v>
-      </c>
-      <c r="E41" s="116" t="s">
-        <v>316</v>
-      </c>
-      <c r="F41" s="7"/>
+      <c r="D41" s="62" t="s">
+        <v>305</v>
+      </c>
+      <c r="E41" s="79" t="s">
+        <v>308</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>327</v>
+      </c>
       <c r="G41" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="119"/>
+      <c r="A42" s="110"/>
       <c r="B42" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C42" s="7"/>
       <c r="D42" s="16" t="s">
         <v>103</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" s="7" t="s">
         <v>54</v>
       </c>
       <c r="G42" s="1"/>
@@ -5046,14 +5165,14 @@
       <c r="J42" s="1"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="119"/>
+      <c r="A43" s="110"/>
       <c r="B43" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C43" s="62" t="s">
+      <c r="C43" s="116" t="s">
         <v>217</v>
       </c>
-      <c r="D43" s="63">
+      <c r="D43" s="62">
         <v>9462205655</v>
       </c>
       <c r="E43" s="7" t="s">
@@ -5068,14 +5187,14 @@
       <c r="J43" s="1"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="119"/>
+      <c r="A44" s="110"/>
       <c r="B44" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C44" s="62" t="s">
+      <c r="C44" s="116" t="s">
         <v>218</v>
       </c>
-      <c r="D44" s="63">
+      <c r="D44" s="62">
         <v>9462205671</v>
       </c>
       <c r="E44" s="7" t="s">
@@ -5090,11 +5209,11 @@
       <c r="J44" s="1"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="119"/>
-      <c r="B45" s="76" t="s">
-        <v>244</v>
-      </c>
-      <c r="C45" s="79" t="s">
+      <c r="A45" s="110"/>
+      <c r="B45" s="75" t="s">
+        <v>240</v>
+      </c>
+      <c r="C45" s="117" t="s">
         <v>225</v>
       </c>
       <c r="D45" s="16">
@@ -5103,7 +5222,7 @@
       <c r="E45" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="76" t="s">
+      <c r="F45" s="75" t="s">
         <v>41</v>
       </c>
       <c r="G45" s="1"/>
@@ -5112,14 +5231,14 @@
       <c r="J45" s="1"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="119"/>
+      <c r="A46" s="110"/>
       <c r="B46" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C46" s="62" t="s">
+      <c r="C46" s="116" t="s">
         <v>229</v>
       </c>
-      <c r="D46" s="63">
+      <c r="D46" s="62">
         <v>9462205701</v>
       </c>
       <c r="E46" s="7" t="s">
@@ -5134,21 +5253,21 @@
       <c r="J46" s="1"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="119"/>
-      <c r="B47" s="76" t="s">
-        <v>257</v>
-      </c>
-      <c r="C47" s="80" t="s">
-        <v>258</v>
+      <c r="A47" s="110"/>
+      <c r="B47" s="75" t="s">
+        <v>252</v>
+      </c>
+      <c r="C47" s="118" t="s">
+        <v>253</v>
       </c>
       <c r="D47" s="16">
         <v>9462205841</v>
       </c>
-      <c r="E47" s="81" t="s">
-        <v>23</v>
-      </c>
-      <c r="F47" s="76" t="s">
-        <v>262</v>
+      <c r="E47" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="F47" s="75" t="s">
+        <v>256</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -5156,59 +5275,61 @@
       <c r="J47" s="1"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="77"/>
-      <c r="B48" s="76"/>
-      <c r="C48" s="80"/>
+      <c r="A48" s="76"/>
+      <c r="B48" s="75"/>
+      <c r="C48" s="78"/>
       <c r="D48" s="16"/>
-      <c r="E48" s="81"/>
-      <c r="F48" s="76"/>
+      <c r="E48" s="79"/>
+      <c r="F48" s="75"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="77"/>
-      <c r="C49" s="80"/>
+      <c r="A49" s="76"/>
+      <c r="C49" s="78"/>
       <c r="D49" s="16"/>
-      <c r="E49" s="81"/>
-      <c r="F49" s="76"/>
+      <c r="E49" s="79"/>
+      <c r="F49" s="75"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="77"/>
-      <c r="B50" s="89" t="s">
-        <v>267</v>
-      </c>
-      <c r="C50" s="80"/>
+      <c r="A50" s="76"/>
+      <c r="B50" s="87" t="s">
+        <v>261</v>
+      </c>
+      <c r="C50" s="78"/>
       <c r="D50" s="16"/>
-      <c r="E50" s="81"/>
-      <c r="F50" s="76"/>
+      <c r="E50" s="79"/>
+      <c r="F50" s="75"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
     </row>
-    <row r="51" spans="1:10" s="105" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="122" t="s">
+    <row r="51" spans="1:10" s="102" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="113" t="s">
         <v>0</v>
       </c>
       <c r="B51" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="103">
+        <v>9462205922</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G51" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="115">
-        <v>9462205922</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="H51" s="7" t="s">
         <v>87</v>
@@ -5216,35 +5337,37 @@
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
     </row>
-    <row r="52" spans="1:10" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="122"/>
+    <row r="52" spans="1:10" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="113"/>
       <c r="B52" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C52" s="7"/>
-      <c r="D52" s="115">
+      <c r="D52" s="103">
         <v>9462205981</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="F52" s="7"/>
+        <v>263</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>326</v>
+      </c>
       <c r="G52" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
     </row>
-    <row r="53" spans="1:10" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="122"/>
+    <row r="53" spans="1:10" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="113"/>
       <c r="B53" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C53" s="110" t="s">
+      <c r="C53" s="116" t="s">
         <v>217</v>
       </c>
-      <c r="D53" s="111">
+      <c r="D53" s="62">
         <v>9462205655</v>
       </c>
       <c r="E53" s="7" t="s">
@@ -5254,21 +5377,21 @@
         <v>126</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
     </row>
-    <row r="54" spans="1:10" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="122"/>
+    <row r="54" spans="1:10" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="113"/>
       <c r="B54" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C54" s="110" t="s">
+      <c r="C54" s="116" t="s">
         <v>218</v>
       </c>
-      <c r="D54" s="111">
+      <c r="D54" s="62">
         <v>9462205671</v>
       </c>
       <c r="E54" s="7" t="s">
@@ -5278,45 +5401,45 @@
         <v>40</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
     </row>
-    <row r="55" spans="1:10" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="122"/>
-      <c r="B55" s="81" t="s">
-        <v>244</v>
-      </c>
-      <c r="C55" s="106" t="s">
+    <row r="55" spans="1:10" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="113"/>
+      <c r="B55" s="79" t="s">
+        <v>240</v>
+      </c>
+      <c r="C55" s="117" t="s">
         <v>225</v>
       </c>
-      <c r="D55" s="115">
+      <c r="D55" s="103">
         <v>9462205833</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F55" s="81" t="s">
+      <c r="F55" s="79" t="s">
         <v>41</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
     </row>
-    <row r="56" spans="1:10" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="122"/>
+    <row r="56" spans="1:10" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="113"/>
       <c r="B56" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C56" s="110" t="s">
+      <c r="C56" s="116" t="s">
         <v>229</v>
       </c>
-      <c r="D56" s="111">
+      <c r="D56" s="62">
         <v>9462205701</v>
       </c>
       <c r="E56" s="7" t="s">
@@ -5326,43 +5449,43 @@
         <v>37</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H56" s="7"/>
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
     </row>
-    <row r="57" spans="1:10" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="122"/>
-      <c r="B57" s="81" t="s">
-        <v>257</v>
-      </c>
-      <c r="C57" s="114" t="s">
-        <v>258</v>
-      </c>
-      <c r="D57" s="115">
+    <row r="57" spans="1:10" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="113"/>
+      <c r="B57" s="79" t="s">
+        <v>252</v>
+      </c>
+      <c r="C57" s="118" t="s">
+        <v>253</v>
+      </c>
+      <c r="D57" s="103">
         <v>9462205841</v>
       </c>
-      <c r="E57" s="81" t="s">
-        <v>23</v>
-      </c>
-      <c r="F57" s="81" t="s">
-        <v>262</v>
+      <c r="E57" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="F57" s="79" t="s">
+        <v>256</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H57" s="7"/>
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="77"/>
-      <c r="B58" s="76"/>
-      <c r="C58" s="80"/>
+      <c r="A58" s="76"/>
+      <c r="B58" s="75"/>
+      <c r="C58" s="78"/>
       <c r="D58" s="16"/>
-      <c r="E58" s="81"/>
-      <c r="F58" s="76"/>
+      <c r="E58" s="79"/>
+      <c r="F58" s="75"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -5403,7 +5526,7 @@
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>21</v>
@@ -5417,20 +5540,20 @@
       <c r="J62" s="1"/>
     </row>
     <row r="63" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A63" s="119" t="s">
+      <c r="A63" s="110" t="s">
         <v>0</v>
       </c>
       <c r="B63" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C63" s="14"/>
+      <c r="C63" s="119"/>
       <c r="D63" s="61" t="s">
-        <v>289</v>
-      </c>
-      <c r="E63" s="93" t="s">
-        <v>273</v>
-      </c>
-      <c r="F63" s="94" t="s">
+        <v>283</v>
+      </c>
+      <c r="E63" s="91" t="s">
+        <v>267</v>
+      </c>
+      <c r="F63" s="121" t="s">
         <v>84</v>
       </c>
       <c r="G63" s="1" t="s">
@@ -5442,38 +5565,38 @@
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
     </row>
-    <row r="64" spans="1:10" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="119"/>
+    <row r="64" spans="1:10" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="110"/>
       <c r="B64" s="7" t="s">
         <v>127</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="D64" s="75" t="s">
-        <v>290</v>
+      <c r="D64" s="74" t="s">
+        <v>284</v>
       </c>
       <c r="E64" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
     </row>
-    <row r="65" spans="1:10" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="119"/>
+    <row r="65" spans="1:10" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="110"/>
       <c r="B65" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="D65" s="75" t="s">
-        <v>291</v>
+      <c r="D65" s="74" t="s">
+        <v>285</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>23</v>
@@ -5486,159 +5609,159 @@
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
     </row>
-    <row r="66" spans="1:10" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="119"/>
+    <row r="66" spans="1:10" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="110"/>
       <c r="B66" s="7" t="s">
         <v>128</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="D66" s="75" t="s">
-        <v>292</v>
+      <c r="D66" s="74" t="s">
+        <v>286</v>
       </c>
       <c r="E66" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
     </row>
-    <row r="67" spans="1:10" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="119"/>
+    <row r="67" spans="1:10" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="110"/>
       <c r="B67" s="7" t="s">
         <v>124</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="D67" s="75" t="s">
-        <v>293</v>
+      <c r="D67" s="74" t="s">
+        <v>287</v>
       </c>
       <c r="E67" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>126</v>
+        <v>331</v>
       </c>
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
     </row>
-    <row r="68" spans="1:10" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="119"/>
-      <c r="B68" s="81" t="s">
-        <v>244</v>
-      </c>
-      <c r="C68" s="106" t="s">
+    <row r="68" spans="1:10" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="110"/>
+      <c r="B68" s="79" t="s">
+        <v>240</v>
+      </c>
+      <c r="C68" s="120" t="s">
         <v>225</v>
       </c>
-      <c r="D68" s="107" t="s">
-        <v>294</v>
+      <c r="D68" s="103" t="s">
+        <v>288</v>
       </c>
       <c r="E68" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F68" s="81" t="s">
-        <v>41</v>
+      <c r="F68" s="79" t="s">
+        <v>332</v>
       </c>
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
     </row>
-    <row r="69" spans="1:10" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="119"/>
+    <row r="69" spans="1:10" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="110"/>
       <c r="B69" s="7" t="s">
         <v>123</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="D69" s="75" t="s">
-        <v>295</v>
+      <c r="D69" s="74" t="s">
+        <v>289</v>
       </c>
       <c r="E69" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>40</v>
+        <v>334</v>
       </c>
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
     </row>
-    <row r="70" spans="1:10" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="119"/>
-      <c r="B70" s="81" t="s">
-        <v>257</v>
-      </c>
-      <c r="C70" s="81" t="s">
-        <v>258</v>
-      </c>
-      <c r="D70" s="107" t="s">
-        <v>296</v>
-      </c>
-      <c r="E70" s="81" t="s">
-        <v>23</v>
-      </c>
-      <c r="F70" s="81" t="s">
-        <v>262</v>
+    <row r="70" spans="1:10" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="110"/>
+      <c r="B70" s="79" t="s">
+        <v>252</v>
+      </c>
+      <c r="C70" s="79" t="s">
+        <v>253</v>
+      </c>
+      <c r="D70" s="103" t="s">
+        <v>290</v>
+      </c>
+      <c r="E70" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="F70" s="79" t="s">
+        <v>330</v>
       </c>
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
     </row>
-    <row r="71" spans="1:10" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="119"/>
+    <row r="71" spans="1:10" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="110"/>
       <c r="B71" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="D71" s="115" t="s">
-        <v>298</v>
-      </c>
-      <c r="E71" s="81" t="s">
-        <v>23</v>
-      </c>
-      <c r="F71" s="81" t="s">
-        <v>284</v>
+      <c r="D71" s="103" t="s">
+        <v>292</v>
+      </c>
+      <c r="E71" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="F71" s="79" t="s">
+        <v>278</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="H71" s="7"/>
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
     </row>
-    <row r="72" spans="1:10" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="119"/>
+    <row r="72" spans="1:10" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="110"/>
       <c r="B72" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="D72" s="62" t="s">
+        <v>291</v>
+      </c>
+      <c r="E72" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="F72" s="79" t="s">
         <v>279</v>
       </c>
-      <c r="C72" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="D72" s="111" t="s">
-        <v>297</v>
-      </c>
-      <c r="E72" s="81" t="s">
-        <v>23</v>
-      </c>
-      <c r="F72" s="81" t="s">
-        <v>285</v>
-      </c>
       <c r="G72" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H72" s="7"/>
       <c r="I72" s="7"/>
@@ -5656,7 +5779,7 @@
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="10" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C74" s="10"/>
       <c r="D74" s="8"/>
@@ -5668,15 +5791,15 @@
       <c r="J74" s="1"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="92"/>
-      <c r="B75" s="90" t="s">
-        <v>274</v>
-      </c>
-      <c r="C75" s="91"/>
-      <c r="D75" s="92"/>
-      <c r="E75" s="92"/>
-      <c r="F75" s="92"/>
-      <c r="G75" s="92"/>
+      <c r="A75" s="90"/>
+      <c r="B75" s="88" t="s">
+        <v>268</v>
+      </c>
+      <c r="C75" s="89"/>
+      <c r="D75" s="90"/>
+      <c r="E75" s="90"/>
+      <c r="F75" s="90"/>
+      <c r="G75" s="90"/>
       <c r="H75" s="7"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
@@ -5701,20 +5824,20 @@
       <c r="J76" s="1"/>
     </row>
     <row r="77" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="119" t="s">
+      <c r="A77" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="B77" s="76" t="s">
+      <c r="B77" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="C77" s="32"/>
-      <c r="D77" s="1" t="s">
-        <v>68</v>
+      <c r="C77" s="115"/>
+      <c r="D77" s="107" t="s">
+        <v>321</v>
       </c>
       <c r="E77" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F77" s="76" t="s">
+      <c r="F77" s="79" t="s">
         <v>83</v>
       </c>
       <c r="G77" s="1"/>
@@ -5723,15 +5846,15 @@
       <c r="J77" s="1"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="119"/>
+      <c r="A78" s="110"/>
       <c r="B78" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C78" s="62" t="s">
+      <c r="C78" s="116" t="s">
         <v>229</v>
       </c>
-      <c r="D78" s="7" t="s">
-        <v>240</v>
+      <c r="D78" s="107" t="s">
+        <v>319</v>
       </c>
       <c r="E78" s="7" t="s">
         <v>23</v>
@@ -5745,15 +5868,15 @@
       <c r="J78" s="1"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="119"/>
+      <c r="A79" s="110"/>
       <c r="B79" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C79" s="62" t="s">
+      <c r="C79" s="116" t="s">
         <v>222</v>
       </c>
-      <c r="D79" s="7" t="s">
-        <v>241</v>
+      <c r="D79" s="107" t="s">
+        <v>322</v>
       </c>
       <c r="E79" s="7" t="s">
         <v>23</v>
@@ -5767,20 +5890,20 @@
       <c r="J79" s="1"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="119"/>
-      <c r="B80" s="76" t="s">
-        <v>244</v>
-      </c>
-      <c r="C80" s="79" t="s">
+      <c r="A80" s="110"/>
+      <c r="B80" s="75" t="s">
+        <v>240</v>
+      </c>
+      <c r="C80" s="117" t="s">
         <v>225</v>
       </c>
-      <c r="D80" s="7" t="s">
-        <v>245</v>
+      <c r="D80" s="107" t="s">
+        <v>318</v>
       </c>
       <c r="E80" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F80" s="76" t="s">
+      <c r="F80" s="75" t="s">
         <v>41</v>
       </c>
       <c r="G80" s="1"/>
@@ -5789,21 +5912,21 @@
       <c r="J80" s="1"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="119"/>
-      <c r="B81" s="76" t="s">
-        <v>257</v>
-      </c>
-      <c r="C81" s="80" t="s">
-        <v>258</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="E81" s="81" t="s">
-        <v>23</v>
-      </c>
-      <c r="F81" s="76" t="s">
-        <v>262</v>
+      <c r="A81" s="110"/>
+      <c r="B81" s="75" t="s">
+        <v>252</v>
+      </c>
+      <c r="C81" s="118" t="s">
+        <v>253</v>
+      </c>
+      <c r="D81" s="107" t="s">
+        <v>320</v>
+      </c>
+      <c r="E81" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="F81" s="75" t="s">
+        <v>256</v>
       </c>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
@@ -5835,8 +5958,8 @@
       <c r="J84" s="1"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B85" s="90" t="s">
-        <v>275</v>
+      <c r="B85" s="88" t="s">
+        <v>269</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
@@ -5845,12 +5968,12 @@
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
     </row>
-    <row r="86" spans="1:10" s="105" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" s="102" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="7"/>
-      <c r="B86" s="108"/>
-      <c r="C86" s="108"/>
+      <c r="B86" s="104"/>
+      <c r="C86" s="104"/>
       <c r="D86" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="E86" s="7" t="s">
         <v>21</v>
@@ -5865,62 +5988,64 @@
       <c r="I86" s="7"/>
       <c r="J86" s="7"/>
     </row>
-    <row r="87" spans="1:10" s="105" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="122" t="s">
+    <row r="87" spans="1:10" s="102" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B87" s="81" t="s">
+      <c r="B87" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="C87" s="109"/>
-      <c r="D87" s="108" t="s">
-        <v>302</v>
+      <c r="C87" s="115"/>
+      <c r="D87" s="7" t="s">
+        <v>296</v>
       </c>
       <c r="E87" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F87" s="81"/>
+      <c r="F87" s="79" t="s">
+        <v>324</v>
+      </c>
       <c r="G87" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H87" s="7"/>
       <c r="I87" s="7"/>
       <c r="J87" s="7"/>
     </row>
-    <row r="88" spans="1:10" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="122"/>
+    <row r="88" spans="1:10" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="113"/>
       <c r="B88" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C88" s="110" t="s">
+      <c r="C88" s="116" t="s">
         <v>229</v>
       </c>
-      <c r="D88" s="111" t="s">
-        <v>304</v>
+      <c r="D88" s="62" t="s">
+        <v>298</v>
       </c>
       <c r="E88" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>37</v>
+        <v>329</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>276</v>
+        <v>328</v>
       </c>
       <c r="H88" s="7"/>
       <c r="I88" s="7"/>
       <c r="J88" s="7"/>
     </row>
-    <row r="89" spans="1:10" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="122"/>
+    <row r="89" spans="1:10" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="113"/>
       <c r="B89" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C89" s="110" t="s">
+      <c r="C89" s="116" t="s">
         <v>222</v>
       </c>
-      <c r="D89" s="112" t="s">
-        <v>313</v>
+      <c r="D89" s="105" t="s">
+        <v>323</v>
       </c>
       <c r="E89" s="7" t="s">
         <v>23</v>
@@ -5929,55 +6054,55 @@
         <v>39</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H89" s="7"/>
       <c r="I89" s="7"/>
       <c r="J89" s="7"/>
     </row>
-    <row r="90" spans="1:10" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="122"/>
-      <c r="B90" s="81" t="s">
-        <v>244</v>
-      </c>
-      <c r="C90" s="106" t="s">
+    <row r="90" spans="1:10" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="113"/>
+      <c r="B90" s="79" t="s">
+        <v>240</v>
+      </c>
+      <c r="C90" s="117" t="s">
         <v>225</v>
       </c>
-      <c r="D90" s="113" t="s">
-        <v>305</v>
+      <c r="D90" s="106" t="s">
+        <v>299</v>
       </c>
       <c r="E90" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F90" s="81" t="s">
+      <c r="F90" s="79" t="s">
         <v>41</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H90" s="7"/>
       <c r="I90" s="7"/>
       <c r="J90" s="7"/>
     </row>
-    <row r="91" spans="1:10" s="105" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="122"/>
-      <c r="B91" s="81" t="s">
-        <v>257</v>
-      </c>
-      <c r="C91" s="114" t="s">
-        <v>258</v>
-      </c>
-      <c r="D91" s="115" t="s">
-        <v>306</v>
-      </c>
-      <c r="E91" s="81" t="s">
-        <v>23</v>
-      </c>
-      <c r="F91" s="81" t="s">
-        <v>262</v>
+    <row r="91" spans="1:10" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="113"/>
+      <c r="B91" s="79" t="s">
+        <v>252</v>
+      </c>
+      <c r="C91" s="118" t="s">
+        <v>253</v>
+      </c>
+      <c r="D91" s="103" t="s">
+        <v>300</v>
+      </c>
+      <c r="E91" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="F91" s="79" t="s">
+        <v>256</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H91" s="7"/>
       <c r="I91" s="7"/>
@@ -6069,459 +6194,459 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="6" style="64" customWidth="1"/>
-    <col min="3" max="3" width="30.75" style="74" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.125" style="74" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" style="63" customWidth="1"/>
+    <col min="3" max="3" width="30.75" style="73" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.125" style="73" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.375" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="64" t="s">
         <v>204</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="64" t="s">
         <v>205</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="65" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="65"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="67" t="s">
         <v>134</v>
       </c>
-      <c r="D3" s="68" t="s">
+      <c r="D3" s="67" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="D4" s="68" t="s">
+      <c r="D4" s="67" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="D5" s="68" t="s">
+      <c r="D5" s="67" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="67" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="92" t="s">
         <v>207</v>
       </c>
-      <c r="C7" s="96" t="s">
+      <c r="C7" s="93" t="s">
         <v>139</v>
       </c>
-      <c r="D7" s="97" t="s">
+      <c r="D7" s="94" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="63" t="s">
         <v>208</v>
       </c>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="68" t="s">
         <v>140</v>
       </c>
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="67" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="95" t="s">
+      <c r="B9" s="92" t="s">
         <v>209</v>
       </c>
-      <c r="C9" s="96" t="s">
+      <c r="C9" s="93" t="s">
         <v>141</v>
       </c>
-      <c r="D9" s="97" t="s">
+      <c r="D9" s="94" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="63" t="s">
         <v>210</v>
       </c>
-      <c r="C10" s="69" t="s">
+      <c r="C10" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="D10" s="68" t="s">
+      <c r="D10" s="67" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="63" t="s">
         <v>211</v>
       </c>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="D11" s="68" t="s">
+      <c r="D11" s="67" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="68" t="s">
         <v>144</v>
       </c>
-      <c r="D12" s="68" t="s">
+      <c r="D12" s="67" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="63" t="s">
         <v>213</v>
       </c>
-      <c r="C13" s="69" t="s">
+      <c r="C13" s="68" t="s">
         <v>145</v>
       </c>
-      <c r="D13" s="68" t="s">
+      <c r="D13" s="67" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="63" t="s">
         <v>214</v>
       </c>
-      <c r="C14" s="69" t="s">
+      <c r="C14" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="D14" s="68" t="s">
+      <c r="D14" s="67" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="63" t="s">
         <v>215</v>
       </c>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="68" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="68" t="s">
+      <c r="D15" s="67" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="63" t="s">
         <v>216</v>
       </c>
-      <c r="C16" s="69" t="s">
+      <c r="C16" s="68" t="s">
         <v>148</v>
       </c>
-      <c r="D16" s="68" t="s">
+      <c r="D16" s="67" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="70" t="s">
+      <c r="B17" s="69" t="s">
         <v>217</v>
       </c>
-      <c r="C17" s="71" t="s">
+      <c r="C17" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="72" t="s">
+      <c r="D17" s="71" t="s">
         <v>183</v>
       </c>
-      <c r="E17" s="73">
+      <c r="E17" s="72">
         <v>9462205655</v>
       </c>
-      <c r="F17" s="86"/>
+      <c r="F17" s="84"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="70" t="s">
+      <c r="B18" s="69" t="s">
         <v>218</v>
       </c>
-      <c r="C18" s="71" t="s">
+      <c r="C18" s="70" t="s">
         <v>150</v>
       </c>
-      <c r="D18" s="72" t="s">
+      <c r="D18" s="71" t="s">
         <v>184</v>
       </c>
-      <c r="E18" s="73">
+      <c r="E18" s="72">
         <v>9462205671</v>
       </c>
-      <c r="F18" s="86"/>
+      <c r="F18" s="84"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="63" t="s">
         <v>219</v>
       </c>
-      <c r="C19" s="69" t="s">
+      <c r="C19" s="68" t="s">
         <v>151</v>
       </c>
-      <c r="D19" s="68" t="s">
+      <c r="D19" s="67" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="64" t="s">
+      <c r="B20" s="63" t="s">
         <v>220</v>
       </c>
-      <c r="C20" s="69" t="s">
+      <c r="C20" s="68" t="s">
         <v>152</v>
       </c>
-      <c r="D20" s="68" t="s">
+      <c r="D20" s="67" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="64" t="s">
+      <c r="B21" s="63" t="s">
         <v>221</v>
       </c>
-      <c r="C21" s="69" t="s">
+      <c r="C21" s="68" t="s">
         <v>153</v>
       </c>
-      <c r="D21" s="68" t="s">
+      <c r="D21" s="67" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="87" t="s">
+      <c r="B22" s="85" t="s">
         <v>222</v>
       </c>
-      <c r="C22" s="84" t="s">
+      <c r="C22" s="82" t="s">
         <v>154</v>
       </c>
-      <c r="D22" s="85" t="s">
+      <c r="D22" s="83" t="s">
         <v>188</v>
       </c>
-      <c r="E22" s="86"/>
-      <c r="F22" s="86"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="84"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="64" t="s">
+      <c r="B23" s="63" t="s">
         <v>223</v>
       </c>
-      <c r="C23" s="69" t="s">
+      <c r="C23" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="D23" s="68" t="s">
+      <c r="D23" s="67" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="64" t="s">
+      <c r="B24" s="63" t="s">
         <v>224</v>
       </c>
-      <c r="C24" s="69" t="s">
+      <c r="C24" s="68" t="s">
         <v>156</v>
       </c>
-      <c r="D24" s="68" t="s">
+      <c r="D24" s="67" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="70" t="s">
+      <c r="B25" s="69" t="s">
         <v>225</v>
       </c>
-      <c r="C25" s="71" t="s">
+      <c r="C25" s="70" t="s">
         <v>157</v>
       </c>
-      <c r="D25" s="72" t="s">
+      <c r="D25" s="71" t="s">
         <v>191</v>
       </c>
-      <c r="E25" s="78">
+      <c r="E25" s="77">
         <v>9462205833</v>
       </c>
-      <c r="F25" s="86"/>
+      <c r="F25" s="84"/>
     </row>
     <row r="26" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="64" t="s">
+      <c r="B26" s="63" t="s">
         <v>226</v>
       </c>
-      <c r="C26" s="69" t="s">
+      <c r="C26" s="68" t="s">
         <v>158</v>
       </c>
-      <c r="D26" s="68" t="s">
+      <c r="D26" s="67" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="64" t="s">
+      <c r="B27" s="63" t="s">
         <v>227</v>
       </c>
-      <c r="C27" s="69" t="s">
+      <c r="C27" s="68" t="s">
         <v>159</v>
       </c>
-      <c r="D27" s="68" t="s">
+      <c r="D27" s="67" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="64" t="s">
+      <c r="B28" s="63" t="s">
         <v>228</v>
       </c>
-      <c r="C28" s="69" t="s">
+      <c r="C28" s="68" t="s">
         <v>160</v>
       </c>
-      <c r="D28" s="68" t="s">
+      <c r="D28" s="67" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="70" t="s">
+      <c r="B29" s="69" t="s">
         <v>229</v>
       </c>
-      <c r="C29" s="71" t="s">
+      <c r="C29" s="70" t="s">
         <v>161</v>
       </c>
-      <c r="D29" s="72" t="s">
+      <c r="D29" s="71" t="s">
         <v>195</v>
       </c>
-      <c r="E29" s="73">
+      <c r="E29" s="72">
         <v>9462205701</v>
       </c>
-      <c r="F29" s="86"/>
+      <c r="F29" s="84"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="64" t="s">
+      <c r="B30" s="63" t="s">
         <v>230</v>
       </c>
-      <c r="C30" s="69" t="s">
+      <c r="C30" s="68" t="s">
         <v>162</v>
       </c>
-      <c r="D30" s="68" t="s">
+      <c r="D30" s="67" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="64" t="s">
+      <c r="B31" s="63" t="s">
         <v>231</v>
       </c>
-      <c r="C31" s="84" t="s">
+      <c r="C31" s="82" t="s">
         <v>163</v>
       </c>
-      <c r="D31" s="85" t="s">
+      <c r="D31" s="83" t="s">
         <v>197</v>
       </c>
-      <c r="E31" s="86"/>
-      <c r="F31" s="86"/>
+      <c r="E31" s="84"/>
+      <c r="F31" s="84"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="64" t="s">
+      <c r="B32" s="63" t="s">
         <v>232</v>
       </c>
-      <c r="C32" s="69" t="s">
+      <c r="C32" s="68" t="s">
         <v>164</v>
       </c>
-      <c r="D32" s="68" t="s">
+      <c r="D32" s="67" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="64" t="s">
+      <c r="B33" s="63" t="s">
         <v>233</v>
       </c>
-      <c r="C33" s="69" t="s">
+      <c r="C33" s="68" t="s">
         <v>165</v>
       </c>
-      <c r="D33" s="68" t="s">
+      <c r="D33" s="67" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="64" t="s">
+      <c r="B34" s="63" t="s">
         <v>234</v>
       </c>
-      <c r="C34" s="69" t="s">
+      <c r="C34" s="68" t="s">
         <v>166</v>
       </c>
-      <c r="D34" s="68" t="s">
+      <c r="D34" s="67" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="64" t="s">
+      <c r="B35" s="63" t="s">
         <v>235</v>
       </c>
-      <c r="C35" s="69" t="s">
+      <c r="C35" s="68" t="s">
         <v>167</v>
       </c>
-      <c r="D35" s="68" t="s">
+      <c r="D35" s="67" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="64" t="s">
+      <c r="B36" s="63" t="s">
         <v>236</v>
       </c>
-      <c r="C36" s="69" t="s">
+      <c r="C36" s="68" t="s">
         <v>168</v>
       </c>
-      <c r="D36" s="68" t="s">
+      <c r="D36" s="67" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="64" t="s">
+      <c r="B37" s="63" t="s">
         <v>237</v>
       </c>
-      <c r="C37" s="69" t="s">
+      <c r="C37" s="68" t="s">
         <v>169</v>
       </c>
-      <c r="D37" s="68" t="s">
+      <c r="D37" s="67" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="64" t="s">
-        <v>278</v>
-      </c>
-      <c r="C41" s="98" t="s">
-        <v>280</v>
-      </c>
-      <c r="D41" s="99" t="s">
-        <v>281</v>
+      <c r="B41" s="63" t="s">
+        <v>272</v>
+      </c>
+      <c r="C41" s="95" t="s">
+        <v>274</v>
+      </c>
+      <c r="D41" s="96" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="70" t="s">
-        <v>258</v>
-      </c>
-      <c r="C42" s="82" t="s">
-        <v>259</v>
-      </c>
-      <c r="D42" s="82" t="s">
-        <v>260</v>
-      </c>
-      <c r="E42" s="83">
+      <c r="B42" s="69" t="s">
+        <v>253</v>
+      </c>
+      <c r="C42" s="80" t="s">
+        <v>254</v>
+      </c>
+      <c r="D42" s="80" t="s">
+        <v>255</v>
+      </c>
+      <c r="E42" s="81">
         <v>9462205841</v>
       </c>
-      <c r="F42" s="86"/>
+      <c r="F42" s="84"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6536,8 +6661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8D47E82-C527-46E6-9EA5-345AEF48F9B9}">
   <dimension ref="B1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6589,7 +6714,7 @@
         <v>100</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="15" x14ac:dyDescent="0.2">
@@ -6600,7 +6725,7 @@
         <v>100</v>
       </c>
       <c r="D6" s="43" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="15" x14ac:dyDescent="0.2">
@@ -6611,7 +6736,7 @@
         <v>100</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="15" x14ac:dyDescent="0.2">
@@ -6644,31 +6769,31 @@
         <v>100</v>
       </c>
       <c r="D10" s="44" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B11" s="36">
         <v>9462205841</v>
       </c>
-      <c r="C11" s="80" t="s">
+      <c r="C11" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="D11" s="88" t="s">
-        <v>260</v>
+      <c r="D11" s="86" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B12" s="40">
         <v>9462205868</v>
       </c>
-      <c r="C12" s="80" t="s">
+      <c r="C12" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="D12" s="103" t="s">
-        <v>275</v>
-      </c>
-      <c r="E12" s="104"/>
+      <c r="D12" s="100" t="s">
+        <v>269</v>
+      </c>
+      <c r="E12" s="101"/>
     </row>
     <row r="13" spans="2:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B13" s="40">
@@ -6700,7 +6825,7 @@
         <v>100</v>
       </c>
       <c r="D15" s="44" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="15" x14ac:dyDescent="0.2">
@@ -6711,7 +6836,7 @@
         <v>100</v>
       </c>
       <c r="D16" s="44" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="15" x14ac:dyDescent="0.2">
@@ -6722,10 +6847,10 @@
         <v>100</v>
       </c>
       <c r="D17" s="44" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="E17" s="44" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="15" x14ac:dyDescent="0.2">
@@ -6787,7 +6912,7 @@
       <c r="D30" s="43"/>
     </row>
     <row r="32" spans="2:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="B32" s="101">
+      <c r="B32" s="98">
         <v>9876543210</v>
       </c>
       <c r="C32" t="s">
@@ -6797,11 +6922,11 @@
         <v>122</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="B33" s="101">
+      <c r="B33" s="98">
         <v>9464250321</v>
       </c>
       <c r="C33" t="s">
@@ -6811,11 +6936,11 @@
         <v>122</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="B34" s="101">
+      <c r="B34" s="98">
         <v>9464250054</v>
       </c>
       <c r="C34" t="s">
@@ -6825,11 +6950,11 @@
         <v>122</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="B35" s="101">
+      <c r="B35" s="98">
         <v>9464249935</v>
       </c>
       <c r="C35" t="s">
@@ -6839,11 +6964,11 @@
         <v>122</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="B36" s="101">
+      <c r="B36" s="98">
         <v>9464250569</v>
       </c>
       <c r="C36" t="s">
@@ -6853,11 +6978,11 @@
         <v>122</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37" spans="2:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="B37" s="102">
+      <c r="B37" s="99">
         <v>9462205973</v>
       </c>
       <c r="C37" t="s">
@@ -6866,8 +6991,8 @@
       <c r="D37" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="E37" s="76" t="s">
-        <v>255</v>
+      <c r="E37" s="75" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="38" spans="2:5" ht="15" x14ac:dyDescent="0.25">
@@ -6881,7 +7006,7 @@
         <v>122</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39" spans="2:5" ht="15" x14ac:dyDescent="0.25">
@@ -6894,8 +7019,8 @@
       <c r="D39" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="E39" s="100" t="s">
-        <v>263</v>
+      <c r="E39" s="97" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="40" spans="2:5" ht="15" x14ac:dyDescent="0.25">
@@ -6906,7 +7031,7 @@
         <v>122</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="41" spans="2:5" ht="15" x14ac:dyDescent="0.25">
@@ -6917,7 +7042,7 @@
         <v>122</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -6943,8 +7068,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D3" s="1"/>
@@ -6985,7 +7110,7 @@
       <c r="I5" s="53"/>
     </row>
     <row r="6" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="123" t="s">
+      <c r="A6" s="114" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="53" t="s">
@@ -7006,7 +7131,7 @@
       <c r="I6" s="53"/>
     </row>
     <row r="7" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="123"/>
+      <c r="A7" s="114"/>
       <c r="B7" s="53" t="s">
         <v>2</v>
       </c>
@@ -7025,7 +7150,7 @@
       <c r="I7" s="53"/>
     </row>
     <row r="8" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="123"/>
+      <c r="A8" s="114"/>
       <c r="B8" s="53" t="s">
         <v>3</v>
       </c>
@@ -7044,7 +7169,7 @@
       <c r="I8" s="53"/>
     </row>
     <row r="9" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="123"/>
+      <c r="A9" s="114"/>
       <c r="B9" s="53" t="s">
         <v>4</v>
       </c>
@@ -7063,7 +7188,7 @@
       <c r="I9" s="53"/>
     </row>
     <row r="10" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="123"/>
+      <c r="A10" s="114"/>
       <c r="B10" s="53" t="s">
         <v>5</v>
       </c>
@@ -7141,7 +7266,7 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="119" t="s">
+      <c r="A16" s="110" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -7162,7 +7287,7 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="119"/>
+      <c r="A17" s="110"/>
       <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
@@ -7181,7 +7306,7 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="119"/>
+      <c r="A18" s="110"/>
       <c r="B18" s="46" t="s">
         <v>2</v>
       </c>
@@ -7200,7 +7325,7 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="119"/>
+      <c r="A19" s="110"/>
       <c r="B19" s="1" t="s">
         <v>3</v>
       </c>
@@ -7219,7 +7344,7 @@
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="119"/>
+      <c r="A20" s="110"/>
       <c r="B20" s="1" t="s">
         <v>4</v>
       </c>
@@ -7238,7 +7363,7 @@
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="119"/>
+      <c r="A21" s="110"/>
       <c r="B21" s="1" t="s">
         <v>13</v>
       </c>
@@ -7290,7 +7415,7 @@
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="119" t="s">
+      <c r="A25" s="110" t="s">
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -7311,7 +7436,7 @@
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="119"/>
+      <c r="A26" s="110"/>
       <c r="B26" s="1" t="s">
         <v>7</v>
       </c>
@@ -7330,7 +7455,7 @@
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="119"/>
+      <c r="A27" s="110"/>
       <c r="B27" s="46" t="s">
         <v>2</v>
       </c>
@@ -7349,7 +7474,7 @@
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="119"/>
+      <c r="A28" s="110"/>
       <c r="B28" s="1" t="s">
         <v>3</v>
       </c>
@@ -7368,7 +7493,7 @@
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="119"/>
+      <c r="A29" s="110"/>
       <c r="B29" s="1" t="s">
         <v>4</v>
       </c>
@@ -7387,7 +7512,7 @@
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="119"/>
+      <c r="A30" s="110"/>
       <c r="B30" s="1" t="s">
         <v>13</v>
       </c>
@@ -7437,7 +7562,7 @@
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="119" t="s">
+      <c r="A34" s="110" t="s">
         <v>0</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -7458,7 +7583,7 @@
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="119"/>
+      <c r="A35" s="110"/>
       <c r="B35" s="1" t="s">
         <v>7</v>
       </c>
@@ -7477,7 +7602,7 @@
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="119"/>
+      <c r="A36" s="110"/>
       <c r="B36" s="46" t="s">
         <v>2</v>
       </c>
@@ -7496,7 +7621,7 @@
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="119"/>
+      <c r="A37" s="110"/>
       <c r="B37" s="1" t="s">
         <v>3</v>
       </c>
@@ -7515,7 +7640,7 @@
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="119"/>
+      <c r="A38" s="110"/>
       <c r="B38" s="1" t="s">
         <v>4</v>
       </c>
@@ -7534,7 +7659,7 @@
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="119"/>
+      <c r="A39" s="110"/>
       <c r="B39" s="1" t="s">
         <v>13</v>
       </c>
@@ -7575,7 +7700,7 @@
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="123" t="s">
+      <c r="A42" s="114" t="s">
         <v>0</v>
       </c>
       <c r="B42" s="53" t="s">
@@ -7592,7 +7717,7 @@
       <c r="I42" s="53"/>
     </row>
     <row r="43" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="123"/>
+      <c r="A43" s="114"/>
       <c r="B43" s="53" t="s">
         <v>7</v>
       </c>
@@ -7607,7 +7732,7 @@
       <c r="I43" s="53"/>
     </row>
     <row r="44" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="123"/>
+      <c r="A44" s="114"/>
       <c r="B44" s="57" t="s">
         <v>2</v>
       </c>
@@ -7624,7 +7749,7 @@
       <c r="I44" s="53"/>
     </row>
     <row r="45" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="123"/>
+      <c r="A45" s="114"/>
       <c r="B45" s="53" t="s">
         <v>3</v>
       </c>
@@ -7641,7 +7766,7 @@
       <c r="I45" s="53"/>
     </row>
     <row r="46" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="123"/>
+      <c r="A46" s="114"/>
       <c r="B46" s="53" t="s">
         <v>4</v>
       </c>
@@ -7658,7 +7783,7 @@
       <c r="I46" s="53"/>
     </row>
     <row r="47" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="123"/>
+      <c r="A47" s="114"/>
       <c r="B47" s="53" t="s">
         <v>13</v>
       </c>
@@ -7723,7 +7848,7 @@
       <c r="I51" s="1"/>
     </row>
     <row r="52" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="119" t="s">
+      <c r="A52" s="110" t="s">
         <v>0</v>
       </c>
       <c r="B52" s="14" t="s">
@@ -7744,7 +7869,7 @@
       <c r="I52" s="1"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="119"/>
+      <c r="A53" s="110"/>
       <c r="B53" s="1" t="s">
         <v>3</v>
       </c>
@@ -7763,7 +7888,7 @@
       <c r="I53" s="1"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="119"/>
+      <c r="A54" s="110"/>
       <c r="B54" s="1" t="s">
         <v>11</v>
       </c>
@@ -7782,7 +7907,7 @@
       <c r="I54" s="1"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="119"/>
+      <c r="A55" s="110"/>
       <c r="B55" s="1" t="s">
         <v>12</v>
       </c>
@@ -7801,7 +7926,7 @@
       <c r="I55" s="1"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="119"/>
+      <c r="A56" s="110"/>
       <c r="B56" s="1" t="s">
         <v>13</v>
       </c>
@@ -7867,7 +7992,7 @@
       <c r="I60" s="1"/>
     </row>
     <row r="61" spans="1:9" s="55" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="123" t="s">
+      <c r="A61" s="114" t="s">
         <v>0</v>
       </c>
       <c r="B61" s="58" t="s">
@@ -7888,7 +8013,7 @@
       <c r="I61" s="53"/>
     </row>
     <row r="62" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="123"/>
+      <c r="A62" s="114"/>
       <c r="B62" s="53" t="s">
         <v>2</v>
       </c>
@@ -7907,7 +8032,7 @@
       <c r="I62" s="53"/>
     </row>
     <row r="63" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="123"/>
+      <c r="A63" s="114"/>
       <c r="B63" s="53" t="s">
         <v>3</v>
       </c>
@@ -7926,7 +8051,7 @@
       <c r="I63" s="53"/>
     </row>
     <row r="64" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="123"/>
+      <c r="A64" s="114"/>
       <c r="B64" s="53" t="s">
         <v>11</v>
       </c>
@@ -7945,7 +8070,7 @@
       <c r="I64" s="53"/>
     </row>
     <row r="65" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="123"/>
+      <c r="A65" s="114"/>
       <c r="B65" s="53" t="s">
         <v>12</v>
       </c>
@@ -7964,7 +8089,7 @@
       <c r="I65" s="53"/>
     </row>
     <row r="66" spans="1:9" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="123"/>
+      <c r="A66" s="114"/>
       <c r="B66" s="53" t="s">
         <v>13</v>
       </c>
@@ -8029,7 +8154,7 @@
       <c r="I70" s="1"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="119" t="s">
+      <c r="A71" s="110" t="s">
         <v>0</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -8050,7 +8175,7 @@
       <c r="I71" s="1"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="119"/>
+      <c r="A72" s="110"/>
       <c r="B72" s="1" t="s">
         <v>2</v>
       </c>
@@ -8069,7 +8194,7 @@
       <c r="I72" s="1"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="119"/>
+      <c r="A73" s="110"/>
       <c r="B73" s="1" t="s">
         <v>3</v>
       </c>
@@ -8088,7 +8213,7 @@
       <c r="I73" s="1"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="119"/>
+      <c r="A74" s="110"/>
       <c r="B74" s="1" t="s">
         <v>13</v>
       </c>
